--- a/FUNÇÃO+SE+(E)+-+SE+(OU)/FUN��O SE (E) - SE (OU).xlsx
+++ b/FUNÇÃO+SE+(E)+-+SE+(OU)/FUN��O SE (E) - SE (OU).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuário\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/FUNÇÃO^MSE^M(E)^M-^MSE^M(OU)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C6B5BE-2CCC-430E-B87A-274ACB1E3F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{86C6B5BE-2CCC-430E-B87A-274ACB1E3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2590F58-EEBE-4CA9-990F-5AFA08258813}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
     <sheet name="Planilha6" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Planilha7" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,7 +446,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,16 +612,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1396080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>134086</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199978</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123778</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -626,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1357980" y="4647031"/>
-          <a:ext cx="7119270" cy="1896644"/>
+          <a:off x="5587080" y="1858111"/>
+          <a:ext cx="6223873" cy="1896644"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -698,16 +708,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -722,8 +732,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="3600450"/>
-          <a:ext cx="8229600" cy="1143000"/>
+          <a:off x="4533900" y="1476375"/>
+          <a:ext cx="7277100" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,16 +789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>510539</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139064</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352420</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -803,8 +813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495299" y="2828925"/>
-          <a:ext cx="9477375" cy="2038350"/>
+          <a:off x="6149339" y="373380"/>
+          <a:ext cx="7680956" cy="2038350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,26 +1671,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1704,9 +1714,12 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="str">
+        <f>IF(AND(B4&gt;=35,C4="SUPERIOR"),"Classificado","Reserva")</f>
+        <v>Classificado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1716,9 +1729,12 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="str">
+        <f t="shared" ref="D5:D7" si="0">IF(AND(B5&gt;=35,C5="SUPERIOR"),"Classificado","Reserva")</f>
+        <v>Reserva</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1728,9 +1744,12 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Reserva</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1740,7 +1759,10 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Classificado</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1760,15 +1782,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1792,9 +1814,12 @@
       <c r="C2" s="10">
         <v>16</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D2" s="11" t="str">
+        <f>IF(AND(B2&gt;=1.7,C2&gt;=16),"Participa","Não participa")</f>
+        <v>Participa</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1804,9 +1829,12 @@
       <c r="C3" s="10">
         <v>17</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D3" s="11" t="str">
+        <f t="shared" ref="D3:D14" si="0">IF(AND(B3&gt;=1.7,C3&gt;=16),"Participa","Não participa")</f>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1816,9 +1844,12 @@
       <c r="C4" s="10">
         <v>18</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Participa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1828,9 +1859,12 @@
       <c r="C5" s="10">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1840,9 +1874,12 @@
       <c r="C6" s="10">
         <v>14</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1852,9 +1889,12 @@
       <c r="C7" s="10">
         <v>16</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Participa</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -1864,9 +1904,12 @@
       <c r="C8" s="10">
         <v>16</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1876,9 +1919,12 @@
       <c r="C9" s="10">
         <v>18</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1888,9 +1934,12 @@
       <c r="C10" s="10">
         <v>19</v>
       </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1900,9 +1949,12 @@
       <c r="C11" s="10">
         <v>21</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1912,9 +1964,12 @@
       <c r="C12" s="10">
         <v>22</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Participa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1924,9 +1979,12 @@
       <c r="C13" s="10">
         <v>23</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Participa</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1994,10 @@
       <c r="C14" s="14">
         <v>14</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>Não participa</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1949,18 +2010,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -1984,9 +2045,12 @@
       <c r="C2" s="18">
         <v>0.75</v>
       </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D2" s="16" t="str">
+        <f>IF(AND(B2&gt;=7,C2&gt;=75%),"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -1996,9 +2060,12 @@
       <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D3" s="16" t="str">
+        <f t="shared" ref="D3:D10" si="0">IF(AND(B3&gt;=7,C3&gt;=75%),"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -2008,9 +2075,12 @@
       <c r="C4" s="18">
         <v>0.5</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2020,9 +2090,12 @@
       <c r="C5" s="18">
         <v>0.67</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -2032,9 +2105,12 @@
       <c r="C6" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -2044,9 +2120,12 @@
       <c r="C7" s="18">
         <v>0.78</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -2056,9 +2135,12 @@
       <c r="C8" s="18">
         <v>0.88</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -2068,9 +2150,12 @@
       <c r="C9" s="18">
         <v>0.91</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="D9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2080,7 +2165,10 @@
       <c r="C10" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2094,19 +2182,19 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
@@ -2119,11 +2207,11 @@
       <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -2133,12 +2221,12 @@
       <c r="C2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>42405</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2148,12 +2236,12 @@
       <c r="C3" s="20">
         <v>525000</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>42439</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -2163,12 +2251,12 @@
       <c r="C4" s="20">
         <v>525000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>42465</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2181,7 +2269,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2190,7 +2278,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2199,7 +2287,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2296,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2217,7 +2305,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -2226,7 +2314,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -2235,7 +2323,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2244,7 +2332,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -2263,19 +2351,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -2301,7 +2389,7 @@
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2401,7 @@
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -2325,7 +2413,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2425,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
@@ -2349,7 +2437,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2449,7 @@
       </c>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2461,7 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -2385,7 +2473,7 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -2413,19 +2501,19 @@
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
         <v>28</v>
       </c>
@@ -2445,17 +2533,17 @@
       <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="13:13" ht="21" x14ac:dyDescent="0.35">
       <c r="M1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M47" s="15" t="s">
         <v>30</v>
       </c>

--- a/FUNÇÃO+SE+(E)+-+SE+(OU)/FUN��O SE (E) - SE (OU).xlsx
+++ b/FUNÇÃO+SE+(E)+-+SE+(OU)/FUN��O SE (E) - SE (OU).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/FUNÇÃO^MSE^M(E)^M-^MSE^M(OU)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{86C6B5BE-2CCC-430E-B87A-274ACB1E3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2590F58-EEBE-4CA9-990F-5AFA08258813}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{86C6B5BE-2CCC-430E-B87A-274ACB1E3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C02244-E99B-4F3B-8AD6-049E5B271E25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>CONCURSO PÚBLICO</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">Carla </t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -797,8 +794,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>504820</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -814,7 +811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6149339" y="373380"/>
-          <a:ext cx="7680956" cy="2038350"/>
+          <a:ext cx="7680956" cy="2655570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,6 +1403,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2181,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,13 +2219,14 @@
       <c r="B2" s="20">
         <v>500000</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C2" s="20"/>
       <c r="D2" s="21">
         <v>42405</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="str">
+        <f>IF(OR(B2="",C2=""),"",IF(B2&gt;=C2,"Meta Atingida","Meta não Atingida"))</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2239,7 +2241,10 @@
       <c r="D3" s="21">
         <v>42439</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E13" si="0">IF(OR(B3="",C3=""),"",IF(B3&gt;=C3,"Meta Atingida","Meta não Atingida"))</f>
+        <v>Meta Atingida</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2254,7 +2259,10 @@
       <c r="D4" s="21">
         <v>42465</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Meta não Atingida</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2267,7 +2275,10 @@
         <v>525000</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Meta Atingida</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2276,7 +2287,10 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2285,7 +2299,10 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2294,7 +2311,10 @@
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2303,7 +2323,10 @@
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2312,7 +2335,10 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2321,7 +2347,10 @@
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2330,7 +2359,10 @@
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2339,7 +2371,10 @@
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2351,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2395,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -2382,12 +2417,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D2" s="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="16" t="str">
+        <f>IF(AND(B2&gt;=7,C2&gt;=75%),"Aprovado",IF(AND(B2&lt;7,C2&gt;=75%),"Recuperação por Nota",IF(AND(B2&gt;=7,C2&lt;75%),"Recuperação por Falta","Reprovado")))</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -2399,7 +2437,10 @@
       <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="16" t="str">
+        <f t="shared" ref="D3:D10" si="0">IF(AND(B3&gt;=7,C3&gt;=75%),"Aprovado",IF(AND(B3&lt;7,C3&gt;=75%),"Recuperação por Nota",IF(AND(B3&gt;=7,C3&lt;75%),"Recuperação por Falta","Reprovado")))</f>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
@@ -2411,7 +2452,10 @@
       <c r="C4" s="18">
         <v>0.5</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
@@ -2423,7 +2467,10 @@
       <c r="C5" s="18">
         <v>0.67</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
@@ -2435,7 +2482,10 @@
       <c r="C6" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -2447,7 +2497,10 @@
       <c r="C7" s="18">
         <v>0.78</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -2459,7 +2512,10 @@
       <c r="C8" s="18">
         <v>0.88</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Aprovado</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
@@ -2471,7 +2527,10 @@
       <c r="C9" s="18">
         <v>0.91</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Recuperação por Nota</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
@@ -2483,7 +2542,10 @@
       <c r="C10" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Recuperação por Falta</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
